--- a/ui/components/mwater_sharedlinks.xlsx
+++ b/ui/components/mwater_sharedlinks.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://share.mwater.co/v3/console_link/145f59f97cd64e5e86fab7ecf98530ad?share=4ed30ce04ed7410e8a987ac55e480697</t>
+          <t>https://go.mwater.co/monitoring_and_evaluation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mWater M&amp;E System: https://share.mwater.co/v3/console_link/145f59f97cd64e5e86fab7ecf98530ad?share=4ed30ce04ed7410e8a987ac55e480697</t>
+          <t>mWater M&amp;E System: https://go.mwater.co/monitoring_and_evaluation</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,11 @@
           <t>Cavaillon Dashboard</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/cavaillon</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -491,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cavaillon Dashboard: </t>
+          <t>Cavaillon Dashboard: https://go.mwater.co/cavaillon</t>
         </is>
       </c>
     </row>
@@ -501,7 +505,11 @@
           <t>Leogane Dashboard</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/leogane</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -509,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leogane Dashboard: </t>
+          <t>Leogane Dashboard: https://go.mwater.co/leogane</t>
         </is>
       </c>
     </row>
@@ -519,7 +527,11 @@
           <t>Terre-Neuve Dashboard</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/terre_neuve</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -527,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terre-Neuve Dashboard: </t>
+          <t>Terre-Neuve Dashboard: https://go.mwater.co/terre_neuve</t>
         </is>
       </c>
     </row>
@@ -537,7 +549,11 @@
           <t>Ferrier Dashboard</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/ferrier</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -545,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ferrier Dashboard: </t>
+          <t>Ferrier Dashboard: https://go.mwater.co/ferrier</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,11 @@
           <t>Pignon Dashboard</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/pignon</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -563,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pignon Dashboard: </t>
+          <t>Pignon Dashboard: https://go.mwater.co/pignon</t>
         </is>
       </c>
     </row>
@@ -573,7 +593,11 @@
           <t>HANWASH Overall Performance Dashboard</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/overall_perfromance</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -581,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">HANWASH Overall Performance Dashboard: </t>
+          <t>HANWASH Overall Performance Dashboard: https://go.mwater.co/overall_perfromance</t>
         </is>
       </c>
     </row>
